--- a/Fluoride assay/Fluoride Assay Calibration data/240325_Fluoride_assay_calibration_plotted.xlsx
+++ b/Fluoride assay/Fluoride Assay Calibration data/240325_Fluoride_assay_calibration_plotted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eawag\userdata\felderfl\My Documents\GitHub\biodefluorination\Fluoride screening data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eawag\userdata\felderfl\My Documents\GitHub\biodefluorination-paper\Fluoride assay\Fluoride Assay Calibration data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="11">
   <si>
     <t>H2O</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>440/540/480*370</t>
+  </si>
+  <si>
+    <t>H2O mean</t>
+  </si>
+  <si>
+    <t>HEPES mean</t>
+  </si>
+  <si>
+    <t>HEPES 20 mM</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1022,6 +1030,502 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$13:$BG$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$14:$BG$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4320480299133671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47205670200087818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60759344036795837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91872065727699537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7656481780512236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2296891149431541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4309472481712824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5428699620062241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8924378843788432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF8D-48F1-9688-5F62FBD3411A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HEPES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$13:$BG$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$15:$BG$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.38656008135133607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39917378125558628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50022595518323265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83408331114464096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4560167648997226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0769842557765505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5110918064399113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6770273268125448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9207274188686827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF8D-48F1-9688-5F62FBD3411A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="295581360"/>
+        <c:axId val="295580376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="295581360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295580376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="295580376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295581360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1104,7 +1608,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1753,7 +2256,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1835,7 +2337,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2484,7 +2985,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3307,7 +3807,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3719,7 +4218,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3966,7 +4464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4048,7 +4545,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4698,6 +5194,1914 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$13:$BG$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$14:$BG$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4320480299133671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47205670200087818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60759344036795837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91872065727699537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7656481780512236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2296891149431541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4309472481712824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5428699620062241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8924378843788432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A33-4F03-88A4-A1081C020EF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HEPES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$13:$BG$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$15:$BG$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.38656008135133607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39917378125558628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50022595518323265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83408331114464096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4560167648997226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0769842557765505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5110918064399113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6770273268125448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9207274188686827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A33-4F03-88A4-A1081C020EF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="294886744"/>
+        <c:axId val="294881496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="294886744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294881496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="294881496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294886744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Fluoride Assay 0 - 125 uM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17248972003499558"/>
+                  <c:y val="-4.1666666666666669E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$34:$BC$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$35:$BC$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4320480299133671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47205670200087818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60759344036795837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91872065727699537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7656481780512236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF56-46BB-B29F-04B4FA17A176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HEPES 20 mM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7510279965004374E-2"/>
+                  <c:y val="0.20989464858559348"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$34:$BC$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AY$36:$BC$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38656008135133607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39917378125558628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50022595518323265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83408331114464096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4560167648997226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF56-46BB-B29F-04B4FA17A176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="370085800"/>
+        <c:axId val="370090064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="370085800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>uM F-</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370090064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="370090064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>A(440)/A(540)/A(480)*A(380)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370085800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Fluoride Assay log(50 - 2000 uM)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H2O</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.48075681795140413"/>
+                  <c:y val="5.2515219106224365E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$34:$BP$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$35:$BP$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.60759344036795837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91872065727699537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7656481780512236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2296891149431541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4309472481712824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5428699620062241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8924378843788432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9955-4ACF-AAF3-149EE0A49913}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HEPES 20 mM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.3031496062992043E-2"/>
+                  <c:y val="0.34475156124746698"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$34:$BP$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$36:$BP$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.50022595518323265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83408331114464096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4560167648997226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0769842557765505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5110918064399113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6770273268125448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9207274188686827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9955-4ACF-AAF3-149EE0A49913}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="362934112"/>
+        <c:axId val="370077272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362934112"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2500"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>log10(uM F-)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370077272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="370077272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>A(440)/A(540)/A(480)*A(380)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362934112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4766,6 +7170,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5005,6 +7449,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5521,7 +8085,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6037,7 +8601,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6553,7 +9117,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7069,7 +9633,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7585,7 +10149,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8196,15 +12824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>501650</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8278,6 +12906,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8549,15 +13297,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU47"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="AX37" workbookViewId="0">
+      <selection activeCell="BF38" sqref="BF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="50" max="50" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>0.625</v>
       </c>
@@ -8678,8 +13429,50 @@
       <c r="AU1" s="35" t="s">
         <v>2</v>
       </c>
+      <c r="AX1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY1">
+        <f>(AL1+AL5)/2</f>
+        <v>0.62149999999999994</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" ref="AZ1:BG1" si="0">(AM1+AM5)/2</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" si="0"/>
+        <v>0.6895</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" si="0"/>
+        <v>0.75750000000000006</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" si="0"/>
+        <v>0.83349999999999991</v>
+      </c>
+      <c r="BD1">
+        <f t="shared" si="0"/>
+        <v>0.84949999999999992</v>
+      </c>
+      <c r="BE1">
+        <f t="shared" si="0"/>
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="BF1">
+        <f t="shared" si="0"/>
+        <v>0.86149999999999993</v>
+      </c>
+      <c r="BG1">
+        <f t="shared" si="0"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="BH1" s="35" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B2" s="8">
         <v>0.59199999999999997</v>
       </c>
@@ -8800,8 +13593,47 @@
       <c r="AU2" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="AY2">
+        <f t="shared" ref="AY2:AY4" si="1">(AL2+AL6)/2</f>
+        <v>0.59</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" ref="AZ2:AZ4" si="2">(AM2+AM6)/2</f>
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" ref="BA2:BA4" si="3">(AN2+AN6)/2</f>
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" ref="BB2:BB4" si="4">(AO2+AO6)/2</f>
+        <v>0.6</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" ref="BC2:BC4" si="5">(AP2+AP6)/2</f>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" ref="BD2:BD4" si="6">(AQ2+AQ6)/2</f>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" ref="BE2:BE4" si="7">(AR2+AR6)/2</f>
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" ref="BF2:BF4" si="8">(AS2+AS6)/2</f>
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" ref="BG2:BG4" si="9">(AT2+AT6)/2</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="BH2" s="35" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>0.95199999999999996</v>
       </c>
@@ -8922,8 +13754,47 @@
       <c r="AU3" s="35" t="s">
         <v>4</v>
       </c>
+      <c r="AY3">
+        <f t="shared" si="1"/>
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="2"/>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="3"/>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="4"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="5"/>
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="6"/>
+        <v>0.248</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="7"/>
+        <v>0.22899999999999998</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="8"/>
+        <v>0.221</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
+      </c>
+      <c r="BH3" s="35" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>0.61799999999999999</v>
       </c>
@@ -9044,8 +13915,47 @@
       <c r="AU4">
         <v>370</v>
       </c>
+      <c r="AY4">
+        <f t="shared" si="1"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="2"/>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="3"/>
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="4"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="5"/>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="6"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="7"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" si="8"/>
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" si="9"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="BH4">
+        <v>370</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B5" s="21">
         <v>0.58799999999999997</v>
       </c>
@@ -9166,8 +14076,50 @@
       <c r="AU5" s="35" t="s">
         <v>2</v>
       </c>
+      <c r="AX5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY5">
+        <f>(AL9+AL13)/2</f>
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" ref="AZ5:BG5" si="10">(AM9+AM13)/2</f>
+        <v>0.59749999999999992</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="10"/>
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="10"/>
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="10"/>
+        <v>0.8115</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="10"/>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="10"/>
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" si="10"/>
+        <v>0.871</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="10"/>
+        <v>0.8075</v>
+      </c>
+      <c r="BH5" s="35" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B6" s="12">
         <v>0.97899999999999998</v>
       </c>
@@ -9288,8 +14240,47 @@
       <c r="AU6" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:AY8" si="11">(AL10+AL14)/2</f>
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ref="AZ6:AZ8" si="12">(AM10+AM14)/2</f>
+        <v>0.57450000000000001</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA8" si="13">(AN10+AN14)/2</f>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" ref="BB6:BB8" si="14">(AO10+AO14)/2</f>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ref="BC6:BC8" si="15">(AP10+AP14)/2</f>
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6:BD8" si="16">(AQ10+AQ14)/2</f>
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ref="BE6:BE8" si="17">(AR10+AR14)/2</f>
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6:BF8" si="18">(AS10+AS14)/2</f>
+        <v>0.58749999999999991</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" ref="BG6:BG8" si="19">(AT10+AT14)/2</f>
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="BH6" s="35" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B7" s="23">
         <v>0.58699999999999997</v>
       </c>
@@ -9410,8 +14401,47 @@
       <c r="AU7" s="35" t="s">
         <v>4</v>
       </c>
+      <c r="AY7">
+        <f t="shared" si="11"/>
+        <v>1.0230000000000001</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="12"/>
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="13"/>
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="14"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="15"/>
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="16"/>
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="17"/>
+        <v>0.2225</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="18"/>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="19"/>
+        <v>0.185</v>
+      </c>
+      <c r="BH7" s="35" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B8" s="27">
         <v>0.56899999999999995</v>
       </c>
@@ -9532,8 +14562,47 @@
       <c r="AU8">
         <v>370</v>
       </c>
+      <c r="AY8">
+        <f t="shared" si="11"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="12"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="13"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="14"/>
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="15"/>
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="16"/>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="17"/>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="18"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="19"/>
+        <v>0.36</v>
+      </c>
+      <c r="BH8">
+        <v>370</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B9" s="29">
         <v>1.004</v>
       </c>
@@ -9655,7 +14724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B10" s="23">
         <v>0.58599999999999997</v>
       </c>
@@ -9777,7 +14846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B11" s="27">
         <v>0.57299999999999995</v>
       </c>
@@ -9899,7 +14968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B12" s="29">
         <v>1.042</v>
       </c>
@@ -10021,7 +15090,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
       <c r="Z13" s="23">
         <v>0.58599999999999997</v>
       </c>
@@ -10082,8 +15151,35 @@
       <c r="AU13" s="35" t="s">
         <v>2</v>
       </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>5</v>
+      </c>
+      <c r="BA13">
+        <v>25</v>
+      </c>
+      <c r="BB13">
+        <v>50</v>
+      </c>
+      <c r="BC13">
+        <v>125</v>
+      </c>
+      <c r="BD13">
+        <v>250</v>
+      </c>
+      <c r="BE13">
+        <v>500</v>
+      </c>
+      <c r="BF13">
+        <v>1000</v>
+      </c>
+      <c r="BG13">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -10150,8 +15246,47 @@
       <c r="AU14" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="AX14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <f>AY1*AY4/AY2/AY3</f>
+        <v>0.4320480299133671</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" ref="AZ14:BG14" si="20">AZ1*AZ4/AZ2/AZ3</f>
+        <v>0.47205670200087818</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="20"/>
+        <v>0.60759344036795837</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="20"/>
+        <v>0.91872065727699537</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="20"/>
+        <v>1.7656481780512236</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="20"/>
+        <v>2.2296891149431541</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="20"/>
+        <v>2.4309472481712824</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="20"/>
+        <v>2.5428699620062241</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="20"/>
+        <v>2.8924378843788432</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0</v>
       </c>
@@ -10266,45 +15401,84 @@
       <c r="AU15" s="35" t="s">
         <v>4</v>
       </c>
+      <c r="AX15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <f>AY5*AY8/AY6/AY7</f>
+        <v>0.38656008135133607</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" ref="AZ15:BG15" si="21">AZ5*AZ8/AZ6/AZ7</f>
+        <v>0.39917378125558628</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="21"/>
+        <v>0.50022595518323265</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="21"/>
+        <v>0.83408331114464096</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="21"/>
+        <v>1.4560167648997226</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="21"/>
+        <v>2.0769842557765505</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="21"/>
+        <v>2.5110918064399113</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="21"/>
+        <v>2.6770273268125448</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="21"/>
+        <v>2.9207274188686827</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16">
-        <f>B1/B3</f>
+        <f t="shared" ref="B16:J16" si="22">B1/B3</f>
         <v>0.65651260504201681</v>
       </c>
       <c r="C16">
-        <f>C1/C3</f>
+        <f t="shared" si="22"/>
         <v>0.73212258796821794</v>
       </c>
       <c r="D16">
-        <f>D1/D3</f>
+        <f t="shared" si="22"/>
         <v>0.93951612903225801</v>
       </c>
       <c r="E16">
-        <f>E1/E3</f>
+        <f t="shared" si="22"/>
         <v>1.3309734513274338</v>
       </c>
       <c r="F16">
-        <f>F1/F3</f>
+        <f t="shared" si="22"/>
         <v>2.6485623003194885</v>
       </c>
       <c r="G16">
-        <f>G1/G3</f>
+        <f t="shared" si="22"/>
         <v>3.3639999999999999</v>
       </c>
       <c r="H16">
-        <f>H1/H3</f>
+        <f t="shared" si="22"/>
         <v>3.5872340425531917</v>
       </c>
       <c r="I16">
-        <f>I1/I3</f>
+        <f t="shared" si="22"/>
         <v>3.7841409691629955</v>
       </c>
       <c r="J16">
-        <f>J1/J3</f>
+        <f t="shared" si="22"/>
         <v>4.306878306878307</v>
       </c>
       <c r="M16" t="s">
@@ -10315,35 +15489,35 @@
         <v>1.1089739950034068</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16:V16" si="0">O1/O3/O2</f>
+        <f t="shared" ref="O16:V16" si="23">O1/O3/O2</f>
         <v>1.236693560757125</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>1.5554902798547319</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>2.2035984293500559</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>4.4290339470225559</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>5.6920473773265652</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>6.0697699535587004</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>6.3599007885092362</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>7.9170557111733579</v>
       </c>
       <c r="Z16" s="36">
@@ -10416,35 +15590,35 @@
         <v>0.63125638406537288</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:J17" si="1">C4/C6</f>
+        <f t="shared" ref="C17:J17" si="24">C4/C6</f>
         <v>0.69128996692392497</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>0.92140921409214105</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>1.526</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>2.8120805369127515</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>3.4878048780487805</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>3.883408071748879</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>4.0186046511627911</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>4.3548387096774199</v>
       </c>
       <c r="M17" t="s">
@@ -10455,35 +15629,35 @@
         <v>1.073565279022743</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:V17" si="2">O4/O6/O5</f>
+        <f t="shared" ref="O17:V17" si="25">O4/O6/O5</f>
         <v>1.1816922511520085</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>1.564361993365265</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>2.5604026845637584</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>4.7024758142353704</v>
       </c>
       <c r="S17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>5.8618569378971106</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>6.5377240265132643</v>
       </c>
       <c r="U17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>6.811194324004731</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="25"/>
         <v>8.064516129032258</v>
       </c>
     </row>
@@ -10496,35 +15670,35 @@
         <v>0.58466135458167323</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:J18" si="3">C7/C9</f>
+        <f t="shared" ref="C18:J18" si="26">C7/C9</f>
         <v>0.58958958958958951</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>0.77570093457943934</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>1.3015873015873016</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>2.1577540106951871</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>3.2234848484848482</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>4.304347826086957</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="26"/>
         <v>4.358288770053476</v>
       </c>
       <c r="M18" t="s">
@@ -10535,27 +15709,27 @@
         <v>1.0275243490011832</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:V18" si="4">O7/O9/O8</f>
+        <f t="shared" ref="O18:V18" si="27">O7/O9/O8</f>
         <v>1.0398405460133855</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>1.3015116352004017</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>2.1912244134466357</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>3.6264773288994743</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>5.4358935050334711</v>
       </c>
       <c r="T18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>6.7453625632377747</v>
       </c>
       <c r="U18">
@@ -10563,7 +15737,7 @@
         <v>7.2708578143360763</v>
       </c>
       <c r="V18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="27"/>
         <v>8.0411231919805832</v>
       </c>
     </row>
@@ -10576,35 +15750,35 @@
         <v>0.56238003838771589</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:J19" si="5">C10/C12</f>
+        <f t="shared" ref="C19:J19" si="28">C10/C12</f>
         <v>0.60479041916167664</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>0.77883472057074921</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>1.2914485165794067</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>2.3652173913043479</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>3.1977186311787071</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>3.7224669603524227</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>3.9581395348837209</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="28"/>
         <v>4.3715846994535523</v>
       </c>
       <c r="M19" t="s">
@@ -10615,27 +15789,27 @@
         <v>0.98146603558065604</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:V19" si="6">O10/O12/O11</f>
+        <f t="shared" ref="O19:V19" si="29">O10/O12/O11</f>
         <v>1.0391587958104411</v>
       </c>
       <c r="P19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>1.3245488445080769</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>2.1815008726003495</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>4.0020598837637023</v>
       </c>
       <c r="S19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>5.4382969918005228</v>
       </c>
       <c r="T19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>6.3740872608774364</v>
       </c>
       <c r="U19">
@@ -10643,7 +15817,7 @@
         <v>6.789261637879453</v>
       </c>
       <c r="V19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>8.1864882012238809</v>
       </c>
       <c r="AA19" t="s">
@@ -10712,70 +15886,70 @@
         <v>0.43915370202134912</v>
       </c>
       <c r="AB21">
-        <f t="shared" ref="AB21:AI21" si="7">AA1/AA3/AA2*AA4</f>
+        <f t="shared" ref="AB21:AI21" si="30">AA1/AA3/AA2*AA4</f>
         <v>0.484783875816793</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>0.61286317026276438</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>0.85940338744652178</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>1.7140361374977291</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>2.1857461928934012</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>2.3307916621665412</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>2.4676415059415837</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="30"/>
         <v>2.8659741674447554</v>
       </c>
       <c r="AL21" t="s">
         <v>0</v>
       </c>
       <c r="AN21">
-        <f t="shared" ref="AN21" si="8">AM1/AM3/AM2*AM4</f>
+        <f t="shared" ref="AN21" si="31">AM1/AM3/AM2*AM4</f>
         <v>0.484783875816793</v>
       </c>
       <c r="AO21">
-        <f t="shared" ref="AN21:AU21" si="9">AN1/AN3/AN2*AN4</f>
+        <f t="shared" ref="AO21:AU21" si="32">AN1/AN3/AN2*AN4</f>
         <v>0.61286317026276438</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>0.85940338744652178</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>1.7140361374977291</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>2.1857461928934012</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>2.3307916621665412</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>2.4676415059415837</v>
       </c>
       <c r="AU21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="32"/>
         <v>2.8659741674447554</v>
       </c>
     </row>
@@ -10788,70 +15962,70 @@
         <v>0.42513185049300628</v>
       </c>
       <c r="AB22">
-        <f t="shared" ref="AB22:AI22" si="10">AA5/AA7/AA6*AA8</f>
+        <f t="shared" ref="AB22:AI22" si="33">AA5/AA7/AA6*AA8</f>
         <v>0.45967828569813129</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>0.60227936744562705</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>0.98575503355704697</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>1.8198581401090883</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>2.2744004919040788</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>2.5366369222871468</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>2.6223098147418216</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="33"/>
         <v>2.9193548387096775</v>
       </c>
       <c r="AL22" t="s">
         <v>0</v>
       </c>
       <c r="AN22">
-        <f t="shared" ref="AN22" si="11">AM5/AM7/AM6*AM8</f>
+        <f t="shared" ref="AN22" si="34">AM5/AM7/AM6*AM8</f>
         <v>0.45967828569813129</v>
       </c>
       <c r="AO22">
-        <f t="shared" ref="AN22:AU22" si="12">AN5/AN7/AN6*AN8</f>
+        <f t="shared" ref="AO22:AU22" si="35">AN5/AN7/AN6*AN8</f>
         <v>0.60227936744562705</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>0.98575503355704697</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>1.8198581401090883</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>2.2744004919040788</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>2.5366369222871468</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>2.6223098147418216</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>2.9193548387096775</v>
       </c>
     </row>
@@ -10864,70 +16038,70 @@
         <v>0.39559687436545554</v>
       </c>
       <c r="AB23">
-        <f t="shared" ref="AB23:AI23" si="13">AA9/AA11/AA10*AA12</f>
+        <f t="shared" ref="AB23:AI23" si="36">AA9/AA11/AA10*AA12</f>
         <v>0.39825892912312666</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>0.49847895628175387</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>0.84362139917695478</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>1.3925672942973981</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>2.0819472124278193</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>2.5969645868465432</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>2.770196827262045</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>2.9189277186889515</v>
       </c>
       <c r="AL23" t="s">
         <v>1</v>
       </c>
       <c r="AN23">
-        <f t="shared" ref="AN23" si="14">AM9/AM11/AM10*AM12</f>
+        <f t="shared" ref="AN23" si="37">AM9/AM11/AM10*AM12</f>
         <v>0.39825892912312666</v>
       </c>
       <c r="AO23">
-        <f t="shared" ref="AN23:AU23" si="15">AN9/AN11/AN10*AN12</f>
+        <f t="shared" ref="AO23:AU23" si="38">AN9/AN11/AN10*AN12</f>
         <v>0.49847895628175387</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>0.84362139917695478</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>1.3925672942973981</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>2.0819472124278193</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>2.5969645868465432</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>2.770196827262045</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>2.9189277186889515</v>
       </c>
     </row>
@@ -10940,79 +16114,241 @@
         <v>0.37786442369855261</v>
       </c>
       <c r="AB24">
-        <f t="shared" ref="AB24:AI24" si="16">AA13/AA15/AA14*AA16</f>
+        <f t="shared" ref="AB24:AI24" si="39">AA13/AA15/AA14*AA16</f>
         <v>0.40007613638701983</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.50200401206856116</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.82460732984293217</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>1.5247848157139705</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>2.0719911538759992</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>2.4285272463943035</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>2.5867086840320717</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>2.9225762878369252</v>
       </c>
       <c r="AL24" t="s">
         <v>1</v>
       </c>
       <c r="AN24">
-        <f t="shared" ref="AN24" si="17">AM13/AM15/AM14*AM16</f>
+        <f t="shared" ref="AN24" si="40">AM13/AM15/AM14*AM16</f>
         <v>0.40007613638701983</v>
       </c>
       <c r="AO24">
-        <f t="shared" ref="AN24:AU24" si="18">AN13/AN15/AN14*AN16</f>
+        <f t="shared" ref="AO24:AU24" si="41">AN13/AN15/AN14*AN16</f>
         <v>0.50200401206856116</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>0.82460732984293217</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>1.5247848157139705</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>2.0719911538759992</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>2.4285272463943035</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>2.5867086840320717</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>2.9225762878369252</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>5</v>
+      </c>
+      <c r="BA34">
+        <v>25</v>
+      </c>
+      <c r="BB34">
+        <v>50</v>
+      </c>
+      <c r="BC34">
+        <v>125</v>
+      </c>
+      <c r="BD34">
+        <v>250</v>
+      </c>
+      <c r="BE34">
+        <v>500</v>
+      </c>
+      <c r="BF34">
+        <v>1000</v>
+      </c>
+      <c r="BG34">
+        <v>2000</v>
+      </c>
+      <c r="BJ34">
+        <v>25</v>
+      </c>
+      <c r="BK34">
+        <v>50</v>
+      </c>
+      <c r="BL34">
+        <v>125</v>
+      </c>
+      <c r="BM34">
+        <v>250</v>
+      </c>
+      <c r="BN34">
+        <v>500</v>
+      </c>
+      <c r="BO34">
+        <v>1000</v>
+      </c>
+      <c r="BP34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="AX35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0.4320480299133671</v>
+      </c>
+      <c r="AZ35">
+        <v>0.47205670200087818</v>
+      </c>
+      <c r="BA35">
+        <v>0.60759344036795837</v>
+      </c>
+      <c r="BB35">
+        <v>0.91872065727699537</v>
+      </c>
+      <c r="BC35">
+        <v>1.7656481780512236</v>
+      </c>
+      <c r="BD35">
+        <v>2.2296891149431541</v>
+      </c>
+      <c r="BE35">
+        <v>2.4309472481712824</v>
+      </c>
+      <c r="BF35">
+        <v>2.5428699620062241</v>
+      </c>
+      <c r="BG35">
+        <v>2.8924378843788432</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0.60759344036795837</v>
+      </c>
+      <c r="BK35">
+        <v>0.91872065727699537</v>
+      </c>
+      <c r="BL35">
+        <v>1.7656481780512236</v>
+      </c>
+      <c r="BM35">
+        <v>2.2296891149431541</v>
+      </c>
+      <c r="BN35">
+        <v>2.4309472481712824</v>
+      </c>
+      <c r="BO35">
+        <v>2.5428699620062241</v>
+      </c>
+      <c r="BP35">
+        <v>2.8924378843788432</v>
+      </c>
+    </row>
+    <row r="36" spans="2:68" x14ac:dyDescent="0.35">
+      <c r="AX36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY36">
+        <v>0.38656008135133607</v>
+      </c>
+      <c r="AZ36">
+        <v>0.39917378125558628</v>
+      </c>
+      <c r="BA36">
+        <v>0.50022595518323265</v>
+      </c>
+      <c r="BB36">
+        <v>0.83408331114464096</v>
+      </c>
+      <c r="BC36">
+        <v>1.4560167648997226</v>
+      </c>
+      <c r="BD36">
+        <v>2.0769842557765505</v>
+      </c>
+      <c r="BE36">
+        <v>2.5110918064399113</v>
+      </c>
+      <c r="BF36">
+        <v>2.6770273268125448</v>
+      </c>
+      <c r="BG36">
+        <v>2.9207274188686827</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ36">
+        <v>0.50022595518323265</v>
+      </c>
+      <c r="BK36">
+        <v>0.83408331114464096</v>
+      </c>
+      <c r="BL36">
+        <v>1.4560167648997226</v>
+      </c>
+      <c r="BM36">
+        <v>2.0769842557765505</v>
+      </c>
+      <c r="BN36">
+        <v>2.5110918064399113</v>
+      </c>
+      <c r="BO36">
+        <v>2.6770273268125448</v>
+      </c>
+      <c r="BP36">
+        <v>2.9207274188686827</v>
+      </c>
+    </row>
+    <row r="42" spans="2:68" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:68" x14ac:dyDescent="0.35">
       <c r="D43">
         <v>25</v>
       </c>
@@ -11035,7 +16371,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:68" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -11061,7 +16397,7 @@
         <v>4.306878306878307</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:68" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -11087,7 +16423,7 @@
         <v>4.3548387096774199</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:68" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>1</v>
       </c>
@@ -11113,7 +16449,7 @@
         <v>4.358288770053476</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:68" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>1</v>
       </c>
